--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.767</v>
+        <v>-2.114</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.091</v>
+        <v>-0.592</v>
       </c>
       <c r="D4" t="n">
-        <v>74.93000000000001</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005</v>
+        <v>-0.021</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
-        <v>-2300</v>
+        <v>-195.24</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.805</v>
+        <v>8.333</v>
       </c>
       <c r="C6" t="n">
-        <v>13.016</v>
+        <v>4.26</v>
       </c>
       <c r="D6" t="n">
-        <v>47.83</v>
+        <v>-48.88</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.884</v>
+        <v>0.27</v>
       </c>
       <c r="D7" t="n">
-        <v>53.47</v>
+        <v>-53.53</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.361</v>
+        <v>19.183</v>
       </c>
       <c r="C8" t="n">
-        <v>23.58</v>
+        <v>14.559</v>
       </c>
       <c r="D8" t="n">
-        <v>28.42</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.271000000000001</v>
+        <v>7.787</v>
       </c>
       <c r="C9" t="n">
-        <v>11.429</v>
+        <v>3.88</v>
       </c>
       <c r="D9" t="n">
-        <v>38.18</v>
+        <v>-50.17</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.327</v>
+        <v>81.51600000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>188.138</v>
+        <v>29.695</v>
       </c>
       <c r="D10" t="n">
-        <v>99.45</v>
+        <v>-63.57</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.708</v>
+        <v>0.698</v>
       </c>
       <c r="C11" t="n">
-        <v>3.383</v>
+        <v>0.145</v>
       </c>
       <c r="D11" t="n">
-        <v>377.82</v>
+        <v>-79.23</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.589</v>
+        <v>-5.895</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.148</v>
+        <v>-1.512</v>
       </c>
       <c r="D12" t="n">
-        <v>121.14</v>
+        <v>-74.34999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.712</v>
+        <v>9.029</v>
       </c>
       <c r="C13" t="n">
-        <v>13.716</v>
+        <v>5.449</v>
       </c>
       <c r="D13" t="n">
-        <v>41.23</v>
+        <v>-39.65</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.736481919884682</v>
+        <v>3.162563047238759</v>
       </c>
       <c r="C4" t="n">
-        <v>6.533278033137321</v>
+        <v>4.351836942491078</v>
       </c>
       <c r="D4" t="n">
-        <v>37.94</v>
+        <v>37.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8587575789639208</v>
+        <v>1.093582799850231</v>
       </c>
       <c r="F4" t="n">
-        <v>2.308885723599078</v>
+        <v>1.416743343060376</v>
       </c>
       <c r="G4" t="n">
-        <v>168.86</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.737</v>
+        <v>0.755</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.51</v>
+        <v>-29.83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.39456813862198</v>
+        <v>2.810813605190155</v>
       </c>
       <c r="C6" t="n">
-        <v>3.112922309148119</v>
+        <v>2.172236253579124</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.16</v>
+        <v>-22.72</v>
       </c>
       <c r="E6" t="n">
-        <v>1.123375340136421</v>
+        <v>0.546318387159397</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6657161471128996</v>
+        <v>0.4455212184115328</v>
       </c>
       <c r="G6" t="n">
-        <v>-40.74</v>
+        <v>-18.45</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.114</v>
+        <v>-1.539</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.592</v>
+        <v>-0.059</v>
       </c>
       <c r="D4" t="n">
-        <v>-72</v>
+        <v>-96.17</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.021</v>
+        <v>-0.046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02</v>
+        <v>-0.002</v>
       </c>
       <c r="D5" t="n">
-        <v>-195.24</v>
+        <v>-95.65000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.333</v>
+        <v>6.794</v>
       </c>
       <c r="C6" t="n">
-        <v>4.26</v>
+        <v>2.834</v>
       </c>
       <c r="D6" t="n">
-        <v>-48.88</v>
+        <v>-58.29</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.581</v>
+        <v>0.463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27</v>
+        <v>0.183</v>
       </c>
       <c r="D7" t="n">
-        <v>-53.53</v>
+        <v>-60.48</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.183</v>
+        <v>16.866</v>
       </c>
       <c r="C8" t="n">
-        <v>14.559</v>
+        <v>12.045</v>
       </c>
       <c r="D8" t="n">
-        <v>-24.1</v>
+        <v>-28.58</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.787</v>
+        <v>6.207</v>
       </c>
       <c r="C9" t="n">
-        <v>3.88</v>
+        <v>2.045</v>
       </c>
       <c r="D9" t="n">
-        <v>-50.17</v>
+        <v>-67.05</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.51600000000001</v>
+        <v>58.525</v>
       </c>
       <c r="C10" t="n">
-        <v>29.695</v>
+        <v>14.755</v>
       </c>
       <c r="D10" t="n">
-        <v>-63.57</v>
+        <v>-74.79000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.698</v>
+        <v>0.41</v>
       </c>
       <c r="C11" t="n">
-        <v>0.145</v>
+        <v>0.057</v>
       </c>
       <c r="D11" t="n">
-        <v>-79.23</v>
+        <v>-86.09999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5.895</v>
+        <v>-3.95</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.512</v>
+        <v>-0.248</v>
       </c>
       <c r="D12" t="n">
-        <v>-74.34999999999999</v>
+        <v>-93.72</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.029</v>
+        <v>7.65</v>
       </c>
       <c r="C13" t="n">
-        <v>5.449</v>
+        <v>3.841</v>
       </c>
       <c r="D13" t="n">
-        <v>-39.65</v>
+        <v>-49.79</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.162563047238759</v>
+        <v>2.99779580888294</v>
       </c>
       <c r="C4" t="n">
-        <v>4.351836942491078</v>
+        <v>3.664454091162908</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6</v>
+        <v>22.24</v>
       </c>
       <c r="E4" t="n">
-        <v>1.093582799850231</v>
+        <v>0.8449022205190487</v>
       </c>
       <c r="F4" t="n">
-        <v>1.416743343060376</v>
+        <v>0.455760787114978</v>
       </c>
       <c r="G4" t="n">
-        <v>29.55</v>
+        <v>-46.06</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.755</v>
+        <v>0.923</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.83</v>
+        <v>-14.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.810813605190155</v>
+        <v>3.657011551872853</v>
       </c>
       <c r="C6" t="n">
-        <v>2.172236253579124</v>
+        <v>2.904303279547385</v>
       </c>
       <c r="D6" t="n">
-        <v>-22.72</v>
+        <v>-20.58</v>
       </c>
       <c r="E6" t="n">
-        <v>0.546318387159397</v>
+        <v>0.2508865760852789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4455212184115328</v>
+        <v>0.1377680557687115</v>
       </c>
       <c r="G6" t="n">
-        <v>-18.45</v>
+        <v>-45.09</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/2_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
